--- a/output/google_maps_data_SMA_SMA_Sleman.xlsx
+++ b/output/google_maps_data_SMA_SMA_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 868434</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>-7.683164</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.683164</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.339281</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sleman/@-7.6831642,110.2671829,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a585b5f7513f5:0xabe958734ec5fd6!8m2!3d-7.6831642!4d110.3392807!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hc0r0kw6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sleman/@-7.6831642,110.2671829,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a585b5f7513f5:0xabe958734ec5fd6!8m2!3d-7.6831642!4d110.3392807!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hc0r0kw6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>(0274) 869774</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>-7.702177</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.702177</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.372501</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+2+Sleman/@-7.6831642,110.2671829,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5f25e19bbf45:0xa27f40f046e2d2a8!8m2!3d-7.7021768!4d110.3725005!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm26nrvj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+2+Sleman/@-7.6831642,110.2671829,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5f25e19bbf45:0xa27f40f046e2d2a8!8m2!3d-7.7021768!4d110.3725005!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm26nrvj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -601,25 +594,24 @@
           <t>(0274) 626345</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>-7.788299</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.788299</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.334892</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Gamping/@-7.7882992,110.2627946,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58063bbb27d5:0xf00736cedbab298e!8m2!3d-7.7882992!4d110.3348924!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm5669kd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Gamping/@-7.7882992,110.2627946,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58063bbb27d5:0xf00736cedbab298e!8m2!3d-7.7882992!4d110.3348924!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm5669kd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -646,25 +638,24 @@
           <t>(0274) 896375</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.704976</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.704976</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.434892</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+2+Ngaglik/@-7.7049761,110.3627942,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5c024a85853b:0x778740598bd88b0e!8m2!3d-7.7049761!4d110.434892!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm54nkv3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+2+Ngaglik/@-7.7049761,110.3627942,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5c024a85853b:0x778740598bd88b0e!8m2!3d-7.7049761!4d110.434892!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm54nkv3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -687,25 +678,24 @@
           <t>(0274) 868539</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>-7.733761</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.733761</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.329374</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Negeri+1+Mlati+%EA%A6%8C%EA%A6%B1%EA%A7%80%EA%A7%88%EA%A6%8C%EA%A6%A9%EA%A7%80%EA%A7%88%EA%A6%84%EA%A7%88%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A9%EA%A7%80%EA%A6%AD%EA%A6%A0%EA%A6%B6/@-7.7337614,110.2572758,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7af62571a7a4bb:0xac3bd1942f5cce6e!8m2!3d-7.7337614!4d110.3293736!15sCg5TTUEgU01BIFNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1pzr10j3m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -728,25 +718,24 @@
           <t>(0274) 4364733</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.707651</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.707651</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.308292</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Seyegan/@-7.7337614,110.2572758,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58ab6a56a925:0x239e5a5c656be69f!8m2!3d-7.7076509!4d110.3082923!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hcnfrg2v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Seyegan/@-7.7337614,110.2572758,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58ab6a56a925:0x239e5a5c656be69f!8m2!3d-7.7076509!4d110.3082923!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hcnfrg2v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -773,25 +762,24 @@
           <t>(0274) 485794</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>-7.773925</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.773925</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.412685</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Depok+Sleman/@-7.7739253,110.3405867,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59f1f812a22b:0xc6f71ee4f4625bea!8m2!3d-7.7739253!4d110.4126845!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hbpwzglz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Depok+Sleman/@-7.7739253,110.3405867,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59f1f812a22b:0xc6f71ee4f4625bea!8m2!3d-7.7739253!4d110.4126845!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hbpwzglz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -814,25 +802,24 @@
           <t>(0274) 4360378</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>-7.687192</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.687192</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.388883</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Ngaglik/@-7.687192,110.3167852,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5ee6763e0d5f:0x9dc651f4e6fe29bc!8m2!3d-7.687192!4d110.388883!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1pzv3_xqp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Ngaglik/@-7.687192,110.3167852,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5ee6763e0d5f:0x9dc651f4e6fe29bc!8m2!3d-7.687192!4d110.388883!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1pzv3_xqp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -859,25 +846,24 @@
           <t>(0274) 562487</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>-7.77423</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.77423</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.389262</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Gama/@-7.77423,110.3171642,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59b7dc237afb:0x73933e1c8ed4e179!8m2!3d-7.77423!4d110.389262!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm3dj9b_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Gama/@-7.77423,110.3171642,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59b7dc237afb:0x73933e1c8ed4e179!8m2!3d-7.77423!4d110.389262!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm3dj9b_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -904,25 +890,24 @@
           <t>0811-2640-907</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>-7.700336</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.700336</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.460434</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Ngemplak+Sleman/@-7.7003363,110.388336,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5c7069f063bf:0x3688679b98f6de55!8m2!3d-7.7003363!4d110.4604338!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm4_mrcx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Ngemplak+Sleman/@-7.7003363,110.388336,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5c7069f063bf:0x3688679b98f6de55!8m2!3d-7.7003363!4d110.4604338!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm4_mrcx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -949,25 +934,24 @@
           <t>(0274) 496040</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>-7.75753</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.75753</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.483543</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kalasan/@-7.7003363,110.388336,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5afaefe4597b:0x38703350fa1fd488!8m2!3d-7.75753!4d110.483543!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm63msk5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kalasan/@-7.7003363,110.388336,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5afaefe4597b:0x38703350fa1fd488!8m2!3d-7.75753!4d110.483543!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm63msk5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -994,25 +978,24 @@
           <t>(0274) 4461539</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>-7.649911</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.649911</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.368077</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Turi/@-7.6499106,110.2959796,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5fb21252a56d:0x8ea8d7373b8046bc!8m2!3d-7.6499106!4d110.3680774!15sCg5TTUEgU01BIFNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm4912cm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Turi/@-7.6499106,110.2959796,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5fb21252a56d:0x8ea8d7373b8046bc!8m2!3d-7.6499106!4d110.3680774!15sCg5TTUEgU01BIFNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm4912cm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1039,25 +1022,24 @@
           <t>(0274) 565938</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>-7.778468</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.778468</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.390566</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Kolombo+Sleman/@-7.778468,110.3184682,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59c617645d5d:0x352b9130e05bb19a!8m2!3d-7.778468!4d110.390566!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hf0vzcpw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Kolombo+Sleman/@-7.778468,110.3184682,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59c617645d5d:0x352b9130e05bb19a!8m2!3d-7.778468!4d110.390566!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hf0vzcpw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1080,25 +1062,24 @@
           <t>(0274) 2820124</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>-7.753056</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.753056</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.232259</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Minggir/@-7.7530556,110.1601615,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7af12daf48adeb:0x9290c9b4e0c8aa66!8m2!3d-7.7530556!4d110.2322593!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F121b1_p6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Minggir/@-7.7530556,110.1601615,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7af12daf48adeb:0x9290c9b4e0c8aa66!8m2!3d-7.7530556!4d110.2322593!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F121b1_p6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1125,25 +1106,24 @@
           <t>(0274) 895283</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.658512</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.658512</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.422099</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+NEGERI+1+PAKEM/@-7.6585119,110.3500015,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a60ad4aa483bf:0x7f24aa8087f3d6b6!8m2!3d-7.6585119!4d110.4220993!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11ddy12mpl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+NEGERI+1+PAKEM/@-7.6585119,110.3500015,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a60ad4aa483bf:0x7f24aa8087f3d6b6!8m2!3d-7.6585119!4d110.4220993!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11ddy12mpl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1166,25 +1146,24 @@
           <t>(0274) 383232</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>-7.821202</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.821202</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.423579</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+INSTITUT+INDONESIA+SLEMAN/@-7.8212019,110.3514809,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a50ccd53c05f7:0x4386b1fa42da4899!8m2!3d-7.8212019!4d110.4235787!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11gbzc5mf8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+INSTITUT+INDONESIA+SLEMAN/@-7.8212019,110.3514809,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a50ccd53c05f7:0x4386b1fa42da4899!8m2!3d-7.8212019!4d110.4235787!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11gbzc5mf8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1211,25 +1190,24 @@
           <t>(0274) 496753</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>-7.783452</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.783452</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.481145</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Prambanan/@-7.7834519,110.4090471,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5afa7242771f:0xdf0371b757cbccfd!8m2!3d-7.7834519!4d110.4811449!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm42sl9y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Prambanan/@-7.7834519,110.4090471,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5afa7242771f:0xdf0371b757cbccfd!8m2!3d-7.7834519!4d110.4811449!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm42sl9y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1256,25 +1234,24 @@
           <t>(0274) 617391</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.799159</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.799159</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.331961</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Islam+1+Sleman+Islamic+HighSchool/@-7.7991594,110.2598629,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a57ffc179ec59:0xc82ac6bef9ce72a2!8m2!3d-7.7991594!4d110.3319607!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm2tfn9f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Islam+1+Sleman+Islamic+HighSchool/@-7.7991594,110.2598629,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a57ffc179ec59:0xc82ac6bef9ce72a2!8m2!3d-7.7991594!4d110.3319607!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm2tfn9f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1297,25 +1274,24 @@
           <t>(0274) 868447</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>-7.703266</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.703266</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.349681</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+%26+SMK+Sulaiman/@-7.7032662,110.2775829,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5f460e63c18f:0x74bfa97f60737116!8m2!3d-7.7032662!4d110.3496807!15sCg5TTUEgU01BIFNsZW1hbpIBDmdyYW1tYXJfc2Nob29s4AEA!16s%2Fg%2F1hm43d3ck?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+%26+SMK+Sulaiman/@-7.7032662,110.2775829,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5f460e63c18f:0x74bfa97f60737116!8m2!3d-7.7032662!4d110.3496807!15sCg5TTUEgU01BIFNsZW1hbpIBDmdyYW1tYXJfc2Nob29s4AEA!16s%2Fg%2F1hm43d3ck?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1342,25 +1318,24 @@
           <t>(0274) 518667</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.9</v>
+        <v>-7.781503</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.781503</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.39307</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Kolese+De+Britto+Yogyakarta/@-7.7815027,110.3209725,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59c4e6fe5aef:0xbc91ae2d0069f518!8m2!3d-7.7815027!4d110.3930703!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1217cn33?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Kolese+De+Britto+Yogyakarta/@-7.7815027,110.3209725,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59c4e6fe5aef:0xbc91ae2d0069f518!8m2!3d-7.7815027!4d110.3930703!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1217cn33?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1387,25 +1362,24 @@
           <t>(0274) 896131</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.7</v>
+        <v>-7.649384</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.649384</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.433452</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Cangkringan/@-7.649384,110.3613542,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5dc2164b19d9:0x5d299fc7e02566d4!8m2!3d-7.649384!4d110.433452!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F121_z_6z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Cangkringan/@-7.649384,110.3613542,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5dc2164b19d9:0x5d299fc7e02566d4!8m2!3d-7.649384!4d110.433452!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F121_z_6z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1428,25 +1402,24 @@
           <t>(0274) 4363632</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.3</v>
+        <v>-7.694061</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.694061</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.343831</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+1+Sleman/@-7.694061,110.2717327,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5f681e576995:0x705b146dfb466200!8m2!3d-7.694061!4d110.3438305!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11c20cpcz_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+1+Sleman/@-7.694061,110.2717327,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5f681e576995:0x705b146dfb466200!8m2!3d-7.694061!4d110.3438305!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11c20cpcz_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1469,25 +1442,24 @@
           <t>0838-7746-6370</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.2</v>
+        <v>-7.723975</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.723975</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.315361</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+negeri+1+Daplokan/@-7.694061,110.2717327,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7af70040a9c715:0xc8cd38e21b7ae20!8m2!3d-7.7239751!4d110.3153606!15sCg5TTUEgU01BIFNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11w1r8p_1z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+negeri+1+Daplokan/@-7.694061,110.2717327,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7af70040a9c715:0xc8cd38e21b7ae20!8m2!3d-7.7239751!4d110.3153606!15sCg5TTUEgU01BIFNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11w1r8p_1z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1514,25 +1486,24 @@
           <t>(0274) 489067</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-7.790772</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.790772</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.41204</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Angkasa+Adisutjipto/@-7.7907723,110.3399424,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59ce73372e7f:0x20fd02c3356435de!8m2!3d-7.7907723!4d110.4120402!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11rk6frg3j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Angkasa+Adisutjipto/@-7.7907723,110.3399424,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59ce73372e7f:0x20fd02c3356435de!8m2!3d-7.7907723!4d110.4120402!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11rk6frg3j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1555,25 +1526,24 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.8</v>
+        <v>-7.762476</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.762476</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.470456</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Kalasan/@-7.7624757,110.3983577,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5afa2fc100cd:0x1c5ecee43c976b02!8m2!3d-7.7624757!4d110.4704555!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm46rjsh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Kalasan/@-7.7624757,110.3983577,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5afa2fc100cd:0x1c5ecee43c976b02!8m2!3d-7.7624757!4d110.4704555!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm46rjsh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -1596,25 +1566,24 @@
           <t>0817-0426-080</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>-7.645336</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.645336</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.332321</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Ma'arif+1+Sleman/@-7.6453358,110.2602231,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5f963944c5a1:0xf3abc099570cf767!8m2!3d-7.6453358!4d110.3323209!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11hyvnc2gk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Ma'arif+1+Sleman/@-7.6453358,110.2602231,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5f963944c5a1:0xf3abc099570cf767!8m2!3d-7.6453358!4d110.3323209!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11hyvnc2gk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1641,25 +1610,24 @@
           <t>0813-3524-6530</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>-7.738377</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.738377</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.383147</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Insan+Mulia+Boarding+School+%22IMBS%22+Yogyakarta/@-7.7383766,110.3110493,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59ddcb2551cf:0x9078814789b9bac2!8m2!3d-7.7383766!4d110.3831471!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11fct337rt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Insan+Mulia+Boarding+School+%22IMBS%22+Yogyakarta/@-7.7383766,110.3110493,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59ddcb2551cf:0x9078814789b9bac2!8m2!3d-7.7383766!4d110.3831471!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11fct337rt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1686,25 +1654,24 @@
           <t>(0274) 2877168</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.762374</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.762374</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.389528</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+SahabatQu/@-7.7383766,110.3110493,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a595a5599e8d5:0xcb6f7969880aa21f!8m2!3d-7.7623742!4d110.3895279!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11rgdklzdy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+SahabatQu/@-7.7383766,110.3110493,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a595a5599e8d5:0xcb6f7969880aa21f!8m2!3d-7.7623742!4d110.3895279!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11rgdklzdy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1731,25 +1698,24 @@
           <t>(0274) 868283</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>-7.745721</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.745721</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.362417</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Mlati/@-7.7383766,110.3110493,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58f1f1ea344b:0x220fab9f74936e68!8m2!3d-7.7457213!4d110.3624169!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm4nz7l7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Mlati/@-7.7383766,110.3110493,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58f1f1ea344b:0x220fab9f74936e68!8m2!3d-7.7457213!4d110.3624169!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F1hm4nz7l7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1776,25 +1742,24 @@
           <t>0813-2860-6860</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>-7.750459</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.750459</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.375035</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Islam+Al+Azhar+9+Yogyakarta/@-7.7383766,110.3110493,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a590002582a7b:0xe559e91844cf91d9!8m2!3d-7.7504594!4d110.375035!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11vzl_292k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Islam+Al+Azhar+9+Yogyakarta/@-7.7383766,110.3110493,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a590002582a7b:0xe559e91844cf91d9!8m2!3d-7.7504594!4d110.375035!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11vzl_292k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1817,25 +1782,24 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.9</v>
+        <v>-7.760218</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.760218</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.479041</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Immanuel+Kalasan/@-7.7602181,110.4069429,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5af7507407ef:0x7134bbd9ac6393f2!8m2!3d-7.7602181!4d110.4790407!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11b6q0fvv_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Immanuel+Kalasan/@-7.7602181,110.4069429,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5af7507407ef:0x7134bbd9ac6393f2!8m2!3d-7.7602181!4d110.4790407!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11b6q0fvv_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1862,25 +1826,24 @@
           <t>0898-1509-566</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.9</v>
+        <v>-7.770612</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.770612</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.445194</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Masa+Depan/@-7.7706121,110.3730961,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5bc95c69d19d:0xb46a89c37fb3add6!8m2!3d-7.7706121!4d110.4451939!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11lgl45w4g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Masa+Depan/@-7.7706121,110.3730961,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5bc95c69d19d:0xb46a89c37fb3add6!8m2!3d-7.7706121!4d110.4451939!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11lgl45w4g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1907,25 +1870,24 @@
           <t>(0274) 4462770</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F34" t="n">
-        <v>3.9</v>
+        <v>-7.740863</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.740863</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.43427</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Internasional+Budi+Mulia+Dua/@-7.7706121,110.3730961,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5bd0ef44dab7:0x7a06c4c0dea8dbf1!8m2!3d-7.7408631!4d110.4342702!15sCg5TTUEgU01BIFNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm2wf3k1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Internasional+Budi+Mulia+Dua/@-7.7706121,110.3730961,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5bd0ef44dab7:0x7a06c4c0dea8dbf1!8m2!3d-7.7408631!4d110.4342702!15sCg5TTUEgU01BIFNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm2wf3k1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1948,25 +1910,24 @@
           <t>(0274) 496208</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>-7.761967</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.761967</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.490159</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+1+Prambanan/@-7.761967,110.4180612,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5aeee7128b53:0x3943d664653b7b9f!8m2!3d-7.761967!4d110.490159!15sCg5TTUEgU01BIFNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm5dx784?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+1+Prambanan/@-7.761967,110.4180612,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5aeee7128b53:0x3943d664653b7b9f!8m2!3d-7.761967!4d110.490159!15sCg5TTUEgU01BIFNsZW1hbpIBC2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm5dx784?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1989,25 +1950,24 @@
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.8</v>
+        <v>-7.77222</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.77222</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.402975</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+SAINS+AL-QUR'AN+PP+WAHID+HASYIM/@-7.7722198,110.3308771,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59007b1df795:0xf2c8c325f1d80311!8m2!3d-7.7722198!4d110.4029749!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11w4gv7rr_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+SAINS+AL-QUR'AN+PP+WAHID+HASYIM/@-7.7722198,110.3308771,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59007b1df795:0xf2c8c325f1d80311!8m2!3d-7.7722198!4d110.4029749!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11w4gv7rr_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2034,25 +1994,24 @@
           <t>(0274) 513245</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.5</v>
+        <v>-7.772021</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.772021</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.362579</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+NEGERI+4+Yogyakarta/@-7.7720215,110.2904811,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5846eb229fa5:0x6ac5d3e1ccb99b1d!8m2!3d-7.7720215!4d110.3625789!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F121bwb96?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+NEGERI+4+Yogyakarta/@-7.7720215,110.2904811,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5846eb229fa5:0x6ac5d3e1ccb99b1d!8m2!3d-7.7720215!4d110.3625789!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F121bwb96?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2075,25 +2034,24 @@
           <t>(0274) 895167</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>-7.66382</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.66382</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.417603</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Islam+3+Sleman/@-7.6638197,110.3455047,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5e7b0aefd989:0xa5d9294705e7de9d!8m2!3d-7.6638197!4d110.4176025!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F1hm1wcfbt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Islam+3+Sleman/@-7.6638197,110.3455047,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5e7b0aefd989:0xa5d9294705e7de9d!8m2!3d-7.6638197!4d110.4176025!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F1hm1wcfbt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2117,22 +2075,21 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-7.7729</v>
+      </c>
       <c r="G39" t="n">
-        <v>-7.7729</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.341239</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Teladan+Yogyakarta/@-7.7728999,110.2691409,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a599314a26d81:0x6ade5e7a5a83387f!8m2!3d-7.7728999!4d110.3412387!15sCg5TTUEgU01BIFNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbOABAA!16s%2Fg%2F11vls4l9hl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2155,25 +2112,24 @@
           <t>(0274) 798391</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.5</v>
+        <v>-7.770958</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.770958</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.326016</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MA+Negeri+1+Sleman/@-7.7728999,110.2691409,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7af7d969d46e55:0xbb07b4ca65c68b9!8m2!3d-7.7709576!4d110.3260162!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2NUaHlWek4zUlJBQuABAPoBBAgAEBI!16s%2Fg%2F1hm27x3lj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MA+Negeri+1+Sleman/@-7.7728999,110.2691409,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7af7d969d46e55:0xbb07b4ca65c68b9!8m2!3d-7.7709576!4d110.3260162!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2NUaHlWek4zUlJBQuABAPoBBAgAEBI!16s%2Fg%2F1hm27x3lj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2200,25 +2156,24 @@
           <t>(0274) 512856</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.7</v>
+        <v>-7.786528</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.786528</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.373616</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+3+Yogyakarta/@-7.7728999,110.2691409,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a582ded4e8f5d:0xe43a323a5f432dc5!8m2!3d-7.7865276!4d110.3736159!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNd2FIQXRVMFZuRUFF4AEA-gEECAAQLQ!16s%2Fg%2F121thsgw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+3+Yogyakarta/@-7.7728999,110.2691409,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a582ded4e8f5d:0xe43a323a5f432dc5!8m2!3d-7.7865276!4d110.3736159!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNd2FIQXRVMFZuRUFF4AEA-gEECAAQLQ!16s%2Fg%2F121thsgw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2237,25 +2192,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>-7.778533</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.778533</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.390866</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+MasAmba+Yogyakarta/@-7.7785327,110.3187686,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59000e1bb38f:0x86792472555f5efb!8m2!3d-7.7785327!4d110.3908664!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaU1tWnFMVGgzUlJBQuABAPoBBAgAEDg!16s%2Fg%2F11vzfb8g06?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+MasAmba+Yogyakarta/@-7.7785327,110.3187686,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a59000e1bb38f:0x86792472555f5efb!8m2!3d-7.7785327!4d110.3908664!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaU1tWnFMVGgzUlJBQuABAPoBBAgAEDg!16s%2Fg%2F11vzfb8g06?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2282,25 +2236,24 @@
           <t>(0274) 565898</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.5</v>
+        <v>-7.777117</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.777117</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.367941</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+11+Yogyakarta/@-7.7785327,110.3187686,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5837e8e7e9a3:0xb1ec7bd26428c2f2!8m2!3d-7.777117!4d110.367941!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOamJEUkVVME4zRUFF4AEA-gEECAAQRg!16s%2Fg%2F11b77_t2fd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+11+Yogyakarta/@-7.7785327,110.3187686,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5837e8e7e9a3:0xb1ec7bd26428c2f2!8m2!3d-7.777117!4d110.367941!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOamJEUkVVME4zRUFF4AEA-gEECAAQRg!16s%2Fg%2F11b77_t2fd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2319,25 +2272,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F44" t="n">
-        <v>3.8</v>
+        <v>-7.699882</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.699882</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.463887</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Ikip+Veteran+Ngemplak/@-7.6998819,110.3917894,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5c7ae873581d:0xad4938a1aafb3812!8m2!3d-7.6998819!4d110.4638872!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUE0zTjJZMU4zRUFF4AEA-gEECAAQEA!16s%2Fg%2F1hm4mk_l5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Ikip+Veteran+Ngemplak/@-7.6998819,110.3917894,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5c7ae873581d:0xad4938a1aafb3812!8m2!3d-7.6998819!4d110.4638872!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUE0zTjJZMU4zRUFF4AEA-gEECAAQEA!16s%2Fg%2F1hm4mk_l5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2360,25 +2312,24 @@
           <t>0896-3667-9979</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>-7.819867</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.819867</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.424445</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+SANTRI+PANCASILA/@-7.8198667,110.3523475,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a57003ecdb159:0xc121958aa48d2565!8m2!3d-7.8198667!4d110.4244453!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBC2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5pT1Y5MlUwTjNFQUXgAQD6AQQIABAX!16s%2Fg%2F11w34_rkbx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+SANTRI+PANCASILA/@-7.8198667,110.3523475,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a57003ecdb159:0xc121958aa48d2565!8m2!3d-7.8198667!4d110.4244453!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBC2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5pT1Y5MlUwTjNFQUXgAQD6AQQIABAX!16s%2Fg%2F11w34_rkbx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2405,25 +2356,24 @@
           <t>(0274) 2923001</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.5</v>
+        <v>-7.773666</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.773666</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.342215</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Teladan+Yogyakarta/@-7.7736661,110.2701176,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58720c16968b:0x8cfd98d48591c688!8m2!3d-7.7736661!4d110.3422154!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJITkZwSFJGcFJFQUXgAQD6AQQIABBD!16s%2Fg%2F11bx0hfsfg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Teladan+Yogyakarta/@-7.7736661,110.2701176,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58720c16968b:0x8cfd98d48591c688!8m2!3d-7.7736661!4d110.3422154!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJITkZwSFJGcFJFQUXgAQD6AQQIABBD!16s%2Fg%2F11bx0hfsfg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2450,25 +2400,24 @@
           <t>(0274) 375146</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.7</v>
+        <v>-7.807542</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.807542</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.370686</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Santa+Maria+Yogyakarta/@-7.7736661,110.2701176,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a579b39964b65:0xb1b8473c13abdedf!8m2!3d-7.807542!4d110.370686!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeGNEbE1URVIzRUFF4AEA-gEECG8QPw!16s%2Fg%2F1hd__fn3h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Santa+Maria+Yogyakarta/@-7.7736661,110.2701176,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a579b39964b65:0xb1b8473c13abdedf!8m2!3d-7.807542!4d110.370686!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeGNEbE1URVIzRUFF4AEA-gEECG8QPw!16s%2Fg%2F1hd__fn3h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -2495,25 +2444,24 @@
           <t>(0274) 562458</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.7</v>
+        <v>-7.797812</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.797812</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.362783</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+10+Yogyakarta/@-7.7736661,110.2701176,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a57889ec1f61b:0x3d6c08e64810adce!8m2!3d-7.7978118!4d110.3627827!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSd2VEUjZaVzkzUlJBQuABAPoBBAgAEEE!16s%2Fg%2F11gzg1b1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+10+Yogyakarta/@-7.7736661,110.2701176,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a57889ec1f61b:0x3d6c08e64810adce!8m2!3d-7.7978118!4d110.3627827!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSd2VEUjZaVzkzUlJBQuABAPoBBAgAEEE!16s%2Fg%2F11gzg1b1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2540,25 +2488,24 @@
           <t>0811-2632-008</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>-7.78081</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.78081</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.48675</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+MBS/@-7.7808103,110.4146523,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5a9ab905daed:0x7f4298da9021a168!8m2!3d-7.7808103!4d110.4867501!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11f4m90vqy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+MBS/@-7.7808103,110.4146523,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5a9ab905daed:0x7f4298da9021a168!8m2!3d-7.7808103!4d110.4867501!15sCg5TTUEgU01BIFNsZW1hbpIBBnNjaG9vbOABAA!16s%2Fg%2F11f4m90vqy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2585,25 +2532,24 @@
           <t>0858-0179-7576</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-7.666018</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.666018</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.462336</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Sunan+Kalijogo/@-7.6660181,110.3902383,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5dad65360daf:0x203ba338bb52f54c!8m2!3d-7.6660181!4d110.4623361!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBBnNjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaWJEbEVTVFpCUlJBQuABAPoBBAgAEBE!16s%2Fg%2F11fytk_3ng?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Sunan+Kalijogo/@-7.6660181,110.3902383,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5dad65360daf:0x203ba338bb52f54c!8m2!3d-7.6660181!4d110.4623361!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBBnNjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaWJEbEVTVFpCUlJBQuABAPoBBAgAEBE!16s%2Fg%2F11fytk_3ng?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2630,25 +2576,24 @@
           <t>(0274) 515359</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.6</v>
+        <v>-7.787166</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.787166</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.377731</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+BOPKRI+1+Yogyakarta/@-7.787166,110.3056332,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a582d15c6b895:0x483d905b35aaf1ea!8m2!3d-7.787166!4d110.377731!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQ0xYRTJPVVJSRUFF4AEA-gEECAAQSA!16s%2Fg%2F1td80pn9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+BOPKRI+1+Yogyakarta/@-7.787166,110.3056332,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a582d15c6b895:0x483d905b35aaf1ea!8m2!3d-7.787166!4d110.377731!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQ0xYRTJPVVJSRUFF4AEA-gEECAAQSA!16s%2Fg%2F1td80pn9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2675,25 +2620,24 @@
           <t>(0274) 555864</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.7</v>
+        <v>-7.766637</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.766637</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.363827</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+-+SMA+Budi+Utama/@-7.787166,110.3056332,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58451f9e4513:0x307dd6484eb5f66e!8m2!3d-7.7666373!4d110.363827!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBDW1pZGRsZV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxiM0pRVFZaQkVBReABAPoBBAgAECg!16s%2Fg%2F11g6mdr61x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+-+SMA+Budi+Utama/@-7.787166,110.3056332,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58451f9e4513:0x307dd6484eb5f66e!8m2!3d-7.7666373!4d110.363827!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBDW1pZGRsZV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxiM0pRVFZaQkVBReABAPoBBAgAECg!16s%2Fg%2F11g6mdr61x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2720,25 +2664,24 @@
           <t>(0274) 513493</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.8</v>
+        <v>-7.80045</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.80045</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.395385</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+8+Yogyakarta/@-7.787166,110.3056332,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a57669d43fe55:0x75fae1bb400d4da5!8m2!3d-7.80045!4d110.395385!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VScWRWQmxNa3BSRUFF4AEA-gEECAAQOw!16s%2Fg%2F11_ygjs9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+8+Yogyakarta/@-7.787166,110.3056332,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a57669d43fe55:0x75fae1bb400d4da5!8m2!3d-7.80045!4d110.395385!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VScWRWQmxNa3BSRUFF4AEA-gEECAAQOw!16s%2Fg%2F11_ygjs9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2765,25 +2708,24 @@
           <t>(0274) 563647</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.6</v>
+        <v>-7.778026</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.778026</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.353004</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+2+Yogyakarta/@-7.787166,110.3056332,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58156b722617:0x6f3815e952da6a52!8m2!3d-7.778026!4d110.353004!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeExXOTFZbVYzRUFF4AEA-gEECAAQLg!16s%2Fg%2F121fx1xd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+2+Yogyakarta/@-7.787166,110.3056332,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a58156b722617:0x6f3815e952da6a52!8m2!3d-7.778026!4d110.353004!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBEnNlbmlvcl9oaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeExXOTFZbVYzRUFF4AEA-gEECAAQLg!16s%2Fg%2F121fx1xd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2810,25 +2752,24 @@
           <t>(0274) 7180384</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>-7.666824</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.666824</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.421092</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+MUHAMMADIYAH+PAKEM/@-7.6668244,110.3489946,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5e7e8fc03577:0x8341bc169de20ce!8m2!3d-7.6668244!4d110.4210924!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMU9XVmlRa1JSRUFF4AEA-gEECAAQIw!16s%2Fg%2F119wbgm1j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+MUHAMMADIYAH+PAKEM/@-7.6668244,110.3489946,13z/data=!4m10!1m2!2m1!1sSMA+SMA+Sleman!3m6!1s0x2e7a5e7e8fc03577:0x8341bc169de20ce!8m2!3d-7.6668244!4d110.4210924!15sCg5TTUEgU01BIFNsZW1hbloQIg5zbWEgc21hIHNsZW1hbpIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMU9XVmlRa1JSRUFF4AEA-gEECAAQIw!16s%2Fg%2F119wbgm1j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
